--- a/Climate Change.xlsx
+++ b/Climate Change.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abisa\Desktop\College folder\Intro to computer Science\MS-Excel3\MS-Excel3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B6E9C57-523A-4844-93AC-F3051808F00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034CBD60-F9A9-434E-89B4-7A6E422FCF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5076D274-1517-4AEE-98B6-704E0A022EBF}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Each Country's Share of CO2 Emissions</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Countries</t>
+  </si>
+  <si>
+    <t>Each Country's share of CO2 Emissions</t>
   </si>
 </sst>
 </file>
@@ -1189,10 +1192,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27708</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>41564</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1218,6 +1221,17 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C6A8DC0-94B6-42CB-8384-7E4E068D6CC7}" name="Table2" displayName="Table2" ref="A24:B45" totalsRowShown="0">
+  <autoFilter ref="A24:B45" xr:uid="{91BC9B86-A170-4A38-B08D-F5B77719700D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{828680F4-3080-48A1-BAD1-722E78466C30}" name="Countries"/>
+    <tableColumn id="2" xr3:uid="{B3BF9136-6A88-45EC-8048-2703BC83790B}" name="Each Country's share of CO2 Emissions"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1517,18 +1531,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2A77AC-23B4-4968-8815-ED53FFBF6A9F}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1536,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1545,7 +1560,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1554,7 +1569,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1563,7 +1578,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1572,7 +1587,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1581,7 +1596,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1590,7 +1605,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1599,7 +1614,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1608,7 +1623,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1617,7 +1632,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1626,7 +1641,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1635,7 +1650,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1644,7 +1659,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1653,7 +1668,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1662,7 +1677,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1671,7 +1686,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1680,7 +1695,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1689,7 +1704,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1698,7 +1713,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1707,7 +1722,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1725,9 +1740,188 @@
         <v>0.21</v>
       </c>
     </row>
+    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Climate Change.xlsx
+++ b/Climate Change.xlsx
@@ -8,47 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abisa\Desktop\College folder\Intro to computer Science\MS-Excel3\MS-Excel3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034CBD60-F9A9-434E-89B4-7A6E422FCF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4358E73F-FB50-4716-B8A5-6ECA2E7080DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5076D274-1517-4AEE-98B6-704E0A022EBF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Documentation" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$G$2:$G$22</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$2:$A$22</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$2:$C$22</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$2:$D$22</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$E$2:$E$22</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$F$2:$F$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$22</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$G$2:$G$22</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$A$2:$A$22</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$2:$C$22</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$D$2:$D$22</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$E$2:$E$22</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$F$2:$F$22</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$G$2:$G$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$2:$D$22</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$2:$E$22</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$F$2:$F$22</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Data!$A$2:$A$22</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Data!$C$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Data!$D$2:$D$22</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Data!$E$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Data!$E$2:$E$22</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Data!$F$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Data!$F$2:$F$22</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Data!$G$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Data!$G$2:$G$22</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Data!$A$2:$A$22</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Data!$C$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Data!$C$2:$C$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Data!$C$2:$C$22</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Data!$D$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Data!$D$2:$D$22</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Data!$E$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Data!$E$2:$E$22</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Data!$F$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Data!$F$2:$F$22</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Data!$G$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Data!$G$2:$G$22</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Data!$A$2:$A$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Data!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Data!$C$2:$C$22</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Data!$A$2:$A$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Data!$C$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Data!$C$2:$C$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Data!$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,10 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
-  <si>
-    <t>Each Country's Share of CO2 Emissions</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>China</t>
   </si>
@@ -141,15 +134,62 @@
   </si>
   <si>
     <t>Each Country's share of CO2 Emissions</t>
+  </si>
+  <si>
+    <t>Each Country's Share of CO2 Emissions in % of the total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate Change </t>
+  </si>
+  <si>
+    <t>Each Country's CO2 Share of Emissions</t>
+  </si>
+  <si>
+    <t>Abisan Poothapillai</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Prepared by:</t>
+  </si>
+  <si>
+    <t>Saturday, October 3, 2020</t>
+  </si>
+  <si>
+    <t>The graph shows how much each country has contributed to the emission of CO2 in the Data tab.</t>
+  </si>
+  <si>
+    <t>So far, China is currently the highest emitter of CO2 with an emission of 28%. Followed by the United States with an emission of 15%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In third place, we have the India with an emission of 7%. These 3 countries are the highest rank in CO2 emissions. </t>
+  </si>
+  <si>
+    <t>Every other country is at 3% or lower in CO2 emission.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -176,9 +216,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,11 +295,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Data!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Each Country's Share of CO2 Emissions</c:v>
+                  <c:v>Each Country's Share of CO2 Emissions in % of the total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -275,7 +318,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Data!$A$2:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -346,7 +389,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$22</c:f>
+              <c:f>Data!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1530,11 +1573,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9306A1E-B8EE-4B82-9691-648756A34A5A}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2A77AC-23B4-4968-8815-ED53FFBF6A9F}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1545,15 +1650,15 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
@@ -1562,7 +1667,7 @@
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
@@ -1571,7 +1676,7 @@
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
@@ -1580,7 +1685,7 @@
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
@@ -1589,7 +1694,7 @@
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -1598,7 +1703,7 @@
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -1607,7 +1712,7 @@
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -1616,7 +1721,7 @@
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -1625,7 +1730,7 @@
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -1634,7 +1739,7 @@
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -1643,7 +1748,7 @@
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -1652,7 +1757,7 @@
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -1661,7 +1766,7 @@
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
@@ -1670,7 +1775,7 @@
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
@@ -1679,7 +1784,7 @@
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
@@ -1688,7 +1793,7 @@
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
@@ -1697,7 +1802,7 @@
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
@@ -1706,7 +1811,7 @@
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
@@ -1715,7 +1820,7 @@
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
@@ -1724,7 +1829,7 @@
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
@@ -1733,7 +1838,7 @@
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
@@ -1742,15 +1847,15 @@
     </row>
     <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="1">
         <v>0.28000000000000003</v>
@@ -1758,7 +1863,7 @@
     </row>
     <row r="26" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1">
         <v>0.15</v>
@@ -1766,7 +1871,7 @@
     </row>
     <row r="27" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1">
         <v>7.0000000000000007E-2</v>
@@ -1774,7 +1879,7 @@
     </row>
     <row r="28" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1">
         <v>0.05</v>
@@ -1782,7 +1887,7 @@
     </row>
     <row r="29" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1">
         <v>0.03</v>
@@ -1790,7 +1895,7 @@
     </row>
     <row r="30" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1">
         <v>0.02</v>
@@ -1798,7 +1903,7 @@
     </row>
     <row r="31" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1">
         <v>0.02</v>
@@ -1806,7 +1911,7 @@
     </row>
     <row r="32" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1">
         <v>0.02</v>
@@ -1814,7 +1919,7 @@
     </row>
     <row r="33" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1">
         <v>0.02</v>
@@ -1822,7 +1927,7 @@
     </row>
     <row r="34" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1">
         <v>0.02</v>
@@ -1830,7 +1935,7 @@
     </row>
     <row r="35" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1">
         <v>0.02</v>
@@ -1838,7 +1943,7 @@
     </row>
     <row r="36" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1">
         <v>0.01</v>
@@ -1846,7 +1951,7 @@
     </row>
     <row r="37" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1">
         <v>0.01</v>
@@ -1854,7 +1959,7 @@
     </row>
     <row r="38" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1">
         <v>0.01</v>
@@ -1862,7 +1967,7 @@
     </row>
     <row r="39" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="1">
         <v>0.01</v>
@@ -1870,7 +1975,7 @@
     </row>
     <row r="40" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1">
         <v>0.01</v>
@@ -1878,7 +1983,7 @@
     </row>
     <row r="41" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1">
         <v>0.01</v>
@@ -1886,7 +1991,7 @@
     </row>
     <row r="42" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1">
         <v>0.01</v>
@@ -1894,7 +1999,7 @@
     </row>
     <row r="43" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="1">
         <v>0.01</v>
@@ -1902,7 +2007,7 @@
     </row>
     <row r="44" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1">
         <v>0.01</v>
@@ -1910,7 +2015,7 @@
     </row>
     <row r="45" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45" s="1">
         <v>0.21</v>
